--- a/automation/src/test/resources/TestData.xlsx
+++ b/automation/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1155" windowWidth="10365" windowHeight="4785"/>
+    <workbookView xWindow="0" yWindow="1155" windowWidth="14610" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,18 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>UserName</t>
+    <t>ListofProducts</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>Portrait Mounted Print</t>
   </si>
   <si>
-    <t>userid</t>
-  </si>
-  <si>
-    <t>Comment</t>
+    <t>Portrait Acrylic Panel</t>
   </si>
 </sst>
 </file>
@@ -384,7 +381,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -397,21 +394,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
@@ -421,7 +413,6 @@
       <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>

--- a/automation/src/test/resources/TestData.xlsx
+++ b/automation/src/test/resources/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ListofProducts</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>Portrait Acrylic Panel</t>
+  </si>
+  <si>
+    <t>Roller Banner</t>
+  </si>
+  <si>
+    <t>Landscape Acrylic Block</t>
   </si>
 </sst>
 </file>
@@ -381,7 +387,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -407,10 +413,14 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="3"/>
